--- a/stock_historical_data/3mo/SYRMA.NS.xlsx
+++ b/stock_historical_data/3mo/SYRMA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -833,12 +853,15 @@
         <v>44</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,113 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B10" t="n">
+        <v>492.7472478790903</v>
+      </c>
+      <c r="C10" t="n">
+        <v>525.4807869344311</v>
+      </c>
+      <c r="D10" t="n">
+        <v>375.0160358883441</v>
+      </c>
+      <c r="E10" t="n">
+        <v>516.0643310546875</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>89534891</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>31</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B11" t="n">
+        <v>522.7999877929688</v>
+      </c>
+      <c r="C11" t="n">
+        <v>631.7999877929688</v>
+      </c>
+      <c r="D11" t="n">
+        <v>496.1000061035156</v>
+      </c>
+      <c r="E11" t="n">
+        <v>590.1500244140625</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>62009563</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I11" t="n">
+        <v>11</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>44</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
